--- a/final_data_pipeline/output/325120_elec_options.xlsx
+++ b/final_data_pipeline/output/325120_elec_options.xlsx
@@ -3870,7 +3870,7 @@
         <v>137</v>
       </c>
       <c r="AD32">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE32">
         <v>8000</v>
@@ -3968,7 +3968,7 @@
         <v>137</v>
       </c>
       <c r="AD33">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE33">
         <v>8000</v>
@@ -4063,7 +4063,7 @@
         <v>137</v>
       </c>
       <c r="AD34">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE34">
         <v>8000</v>
@@ -6462,7 +6462,7 @@
         <v>137</v>
       </c>
       <c r="AD59">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE59">
         <v>8000</v>
@@ -6557,7 +6557,7 @@
         <v>137</v>
       </c>
       <c r="AD60">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE60">
         <v>8000</v>
@@ -6655,7 +6655,7 @@
         <v>137</v>
       </c>
       <c r="AD61">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="AE61">
         <v>8000</v>
@@ -6750,7 +6750,7 @@
         <v>137</v>
       </c>
       <c r="AD62">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE62">
         <v>8000</v>
@@ -6845,7 +6845,7 @@
         <v>137</v>
       </c>
       <c r="AD63">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE63">
         <v>8000</v>
@@ -6940,7 +6940,7 @@
         <v>137</v>
       </c>
       <c r="AD64">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE64">
         <v>8000</v>
@@ -7035,7 +7035,7 @@
         <v>137</v>
       </c>
       <c r="AD65">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE65">
         <v>8000</v>
@@ -7133,7 +7133,7 @@
         <v>137</v>
       </c>
       <c r="AD66">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE66">
         <v>8000</v>
@@ -7231,7 +7231,7 @@
         <v>137</v>
       </c>
       <c r="AD67">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE67">
         <v>8000</v>
@@ -7614,7 +7614,7 @@
         <v>137</v>
       </c>
       <c r="AD71">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE71">
         <v>8000</v>
@@ -7709,7 +7709,7 @@
         <v>137</v>
       </c>
       <c r="AD72">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE72">
         <v>8000</v>
@@ -7807,7 +7807,7 @@
         <v>137</v>
       </c>
       <c r="AD73">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="AE73">
         <v>8000</v>
@@ -7905,7 +7905,7 @@
         <v>137</v>
       </c>
       <c r="AD74">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE74">
         <v>8000</v>
@@ -8000,7 +8000,7 @@
         <v>137</v>
       </c>
       <c r="AD75">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE75">
         <v>8000</v>
@@ -8095,7 +8095,7 @@
         <v>137</v>
       </c>
       <c r="AD76">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="AE76">
         <v>8000</v>
@@ -11937,7 +11937,7 @@
         <v>137</v>
       </c>
       <c r="AD116">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE116">
         <v>8000</v>
@@ -12032,7 +12032,7 @@
         <v>137</v>
       </c>
       <c r="AD117">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE117">
         <v>8000</v>
@@ -12127,7 +12127,7 @@
         <v>137</v>
       </c>
       <c r="AD118">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AE118">
         <v>8000</v>
@@ -12798,7 +12798,7 @@
         <v>137</v>
       </c>
       <c r="AD125">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE125">
         <v>8000</v>
@@ -12893,7 +12893,7 @@
         <v>137</v>
       </c>
       <c r="AD126">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE126">
         <v>8000</v>
@@ -12991,7 +12991,7 @@
         <v>137</v>
       </c>
       <c r="AD127">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE127">
         <v>8000</v>
@@ -13089,7 +13089,7 @@
         <v>137</v>
       </c>
       <c r="AD128">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AE128">
         <v>8000</v>
@@ -13184,7 +13184,7 @@
         <v>137</v>
       </c>
       <c r="AD129">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AE129">
         <v>8000</v>
@@ -13279,7 +13279,7 @@
         <v>137</v>
       </c>
       <c r="AD130">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="AE130">
         <v>8000</v>
@@ -13374,7 +13374,7 @@
         <v>137</v>
       </c>
       <c r="AD131">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE131">
         <v>8000</v>
@@ -13472,7 +13472,7 @@
         <v>137</v>
       </c>
       <c r="AD132">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE132">
         <v>8000</v>
@@ -13567,7 +13567,7 @@
         <v>137</v>
       </c>
       <c r="AD133">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AE133">
         <v>8000</v>
